--- a/biology/Zoologie/Acanthogonatus_subcalpeianus/Acanthogonatus_subcalpeianus.xlsx
+++ b/biology/Zoologie/Acanthogonatus_subcalpeianus/Acanthogonatus_subcalpeianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthogonatus subcalpeianus est une espèce d'araignées mygalomorphes de la famille des Pycnothelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthogonatus subcalpeianus est une espèce d'araignées mygalomorphes de la famille des Pycnothelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chili[1]. Elle se rencontre dans les régions des Lacs et des Fleuves[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre dans les régions des Lacs et des Fleuves.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Goloboff en 1995 mesure 13,12 mm et la femelle 17,43 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Goloboff en 1995 mesure 13,12 mm et la femelle 17,43 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mygale subcalpeiana par Nicolet en 1849. Elle est placée dans le genre Brachythele par Simon en 1889[3], dans le genre Tryssothele par Simon en 1903[4] puis dans le genre Acanthogonatus par Raven en 1985[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mygale subcalpeiana par Nicolet en 1849. Elle est placée dans le genre Brachythele par Simon en 1889, dans le genre Tryssothele par Simon en 1903 puis dans le genre Acanthogonatus par Raven en 1985.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nicolet, 1849 : Aracnidos. Historia física y política de Chile. Zoología, vol. 3, p. 319-543.</t>
         </is>
